--- a/Reloading Calculator.xlsx
+++ b/Reloading Calculator.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Documents\Documents\Reloading Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NemesisXB\source\repos\ReloadingCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69BB556C-8B3C-4C06-9FB4-73280535B2D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E5E43-8851-4FDC-9605-834E040B3574}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="680" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="License" sheetId="6" r:id="rId1"/>
+    <sheet name="Lic" sheetId="6" r:id="rId1"/>
     <sheet name="OBT Tool" sheetId="1" r:id="rId2"/>
     <sheet name="Case H2O Capacity" sheetId="5" r:id="rId3"/>
     <sheet name="Chrono Speed" sheetId="3" r:id="rId4"/>
-    <sheet name="QL Calibration" sheetId="2" r:id="rId5"/>
-    <sheet name="RN" sheetId="4" r:id="rId6"/>
-    <sheet name="Help" sheetId="7" r:id="rId7"/>
+    <sheet name="QL Calib" sheetId="2" r:id="rId5"/>
+    <sheet name="VMD Factor" sheetId="8" r:id="rId6"/>
+    <sheet name="RN" sheetId="4" r:id="rId7"/>
+    <sheet name="Help" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_A">IF(ISODD(_N),0.00442642857,0.00440803571)</definedName>
@@ -32,8 +33,15 @@
     <definedName name="_OBT">IF(_test=0,"-----",( (_A*_N + _B)*_L + _C*_N + _D))</definedName>
     <definedName name="_test">IF(OR('OBT Tool'!$L$11=0,'OBT Tool'!$N$11="",'OBT Tool'!$N$11=0),0,1)</definedName>
     <definedName name="_uom">'OBT Tool'!$N$11</definedName>
+    <definedName name="Alliant">'VMD Factor'!$B$22:$B$45</definedName>
+    <definedName name="Hodgdon">'VMD Factor'!$B$46:$B$120</definedName>
+    <definedName name="Norma">'VMD Factor'!$B$121:$B$128</definedName>
+    <definedName name="nr_PowderManuf">PowderVMD[[#Headers],[Manufacturer]:[Powder]]</definedName>
+    <definedName name="Somchem">'VMD Factor'!$B$129:$B$140</definedName>
+    <definedName name="Vihtavuori">'VMD Factor'!$B$141:$B$162</definedName>
+    <definedName name="Western">'VMD Factor'!$B$163:$B$197</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="390">
   <si>
     <t xml:space="preserve"> Calculator</t>
   </si>
@@ -939,9 +947,6 @@
     <t>S341</t>
   </si>
   <si>
-    <t>435-15</t>
-  </si>
-  <si>
     <t>Add License Tab and add license</t>
   </si>
   <si>
@@ -1048,17 +1053,656 @@
   </si>
   <si>
     <t>Rename Release Notes Tab to RN</t>
+  </si>
+  <si>
+    <t>.308</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>54.65gr</t>
+  </si>
+  <si>
+    <t>Hornady AMAX 178gr</t>
+  </si>
+  <si>
+    <t>43.7gr</t>
+  </si>
+  <si>
+    <t>71 mm</t>
+  </si>
+  <si>
+    <t>436/16</t>
+  </si>
+  <si>
+    <t>V1.30</t>
+  </si>
+  <si>
+    <t>VMD Factor cc/gr</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>Handgun/Shotgun</t>
+  </si>
+  <si>
+    <t>Extremely fast burning</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Spherical</t>
+  </si>
+  <si>
+    <t>Fast Burning</t>
+  </si>
+  <si>
+    <t>Extremly fast burning</t>
+  </si>
+  <si>
+    <t>Medium Burning</t>
+  </si>
+  <si>
+    <t>Revolver/Pistol</t>
+  </si>
+  <si>
+    <t>Slow Burning</t>
+  </si>
+  <si>
+    <t>Extruded</t>
+  </si>
+  <si>
+    <t>Magnum Revolvers</t>
+  </si>
+  <si>
+    <t>Rifles</t>
+  </si>
+  <si>
+    <t>Magnum Rifles</t>
+  </si>
+  <si>
+    <t>Somchem</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>S121</t>
+  </si>
+  <si>
+    <t>MS200</t>
+  </si>
+  <si>
+    <t>MP200</t>
+  </si>
+  <si>
+    <t>S221</t>
+  </si>
+  <si>
+    <t>S265</t>
+  </si>
+  <si>
+    <t>S321</t>
+  </si>
+  <si>
+    <t>S335</t>
+  </si>
+  <si>
+    <t>S355</t>
+  </si>
+  <si>
+    <t>S361</t>
+  </si>
+  <si>
+    <t>S365</t>
+  </si>
+  <si>
+    <t>S385</t>
+  </si>
+  <si>
+    <t>VMD Factor
+(cc/gr)</t>
+  </si>
+  <si>
+    <t>Bulk Density
+(g/dm3)</t>
+  </si>
+  <si>
+    <t>Required (gr)</t>
+  </si>
+  <si>
+    <t>Calculated (cc)</t>
+  </si>
+  <si>
+    <t>Manufacturers:</t>
+  </si>
+  <si>
+    <t>Hodgdon</t>
+  </si>
+  <si>
+    <t>BL-C(2)</t>
+  </si>
+  <si>
+    <t>CFE 223</t>
+  </si>
+  <si>
+    <t>CFE BLK</t>
+  </si>
+  <si>
+    <t>AUTOCOMP</t>
+  </si>
+  <si>
+    <t>BENCHMARK</t>
+  </si>
+  <si>
+    <t>CFE PISTOL</t>
+  </si>
+  <si>
+    <t>CLAYS</t>
+  </si>
+  <si>
+    <t>H 50 BMG</t>
+  </si>
+  <si>
+    <t>H LIL GUN</t>
+  </si>
+  <si>
+    <t>H RETUMBO</t>
+  </si>
+  <si>
+    <t>H1000</t>
+  </si>
+  <si>
+    <t>H110</t>
+  </si>
+  <si>
+    <t>H322</t>
+  </si>
+  <si>
+    <t>H335</t>
+  </si>
+  <si>
+    <t>H380</t>
+  </si>
+  <si>
+    <t>H414</t>
+  </si>
+  <si>
+    <t>H4198</t>
+  </si>
+  <si>
+    <t>H4227</t>
+  </si>
+  <si>
+    <t>H4350</t>
+  </si>
+  <si>
+    <t>H450</t>
+  </si>
+  <si>
+    <t>H4831</t>
+  </si>
+  <si>
+    <t>H4895</t>
+  </si>
+  <si>
+    <t>H870</t>
+  </si>
+  <si>
+    <t>H-LVR</t>
+  </si>
+  <si>
+    <t>HO US869</t>
+  </si>
+  <si>
+    <t>HP38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS6 </t>
+  </si>
+  <si>
+    <t>HS7</t>
+  </si>
+  <si>
+    <t>H-SUPRFORM</t>
+  </si>
+  <si>
+    <t>H-VARGET</t>
+  </si>
+  <si>
+    <t>HYBRID100</t>
+  </si>
+  <si>
+    <t>IMR 4007 SSC</t>
+  </si>
+  <si>
+    <t>IMR 4166</t>
+  </si>
+  <si>
+    <t>IMR 4451</t>
+  </si>
+  <si>
+    <t>IMR 4955</t>
+  </si>
+  <si>
+    <t>IMR 700X</t>
+  </si>
+  <si>
+    <t>IMR 7977</t>
+  </si>
+  <si>
+    <t>IMR 800X</t>
+  </si>
+  <si>
+    <t>IMR 8208 XBR</t>
+  </si>
+  <si>
+    <t>IMR BLUE</t>
+  </si>
+  <si>
+    <t>IMR GREEN</t>
+  </si>
+  <si>
+    <t>IMR PB</t>
+  </si>
+  <si>
+    <t>IMR RED</t>
+  </si>
+  <si>
+    <t>IMR TARGET</t>
+  </si>
+  <si>
+    <t>IMR TRAIL BOSS</t>
+  </si>
+  <si>
+    <t>IMR3031</t>
+  </si>
+  <si>
+    <t>IMR4064</t>
+  </si>
+  <si>
+    <t>IMR4198</t>
+  </si>
+  <si>
+    <t>IMR4227</t>
+  </si>
+  <si>
+    <t>IMR4320</t>
+  </si>
+  <si>
+    <t>IMR4350</t>
+  </si>
+  <si>
+    <t>IMR4831</t>
+  </si>
+  <si>
+    <t>IMR4895</t>
+  </si>
+  <si>
+    <t>IMR7828</t>
+  </si>
+  <si>
+    <t>LONGSHOT</t>
+  </si>
+  <si>
+    <t>SR4756</t>
+  </si>
+  <si>
+    <t>SR4759</t>
+  </si>
+  <si>
+    <t>SR7625</t>
+  </si>
+  <si>
+    <t>SUPRM780</t>
+  </si>
+  <si>
+    <t>TITEGROUP</t>
+  </si>
+  <si>
+    <t>TITEWAD</t>
+  </si>
+  <si>
+    <t>UNIVERSAL</t>
+  </si>
+  <si>
+    <t>WIN 231</t>
+  </si>
+  <si>
+    <t>WIN 296</t>
+  </si>
+  <si>
+    <t>WIN 572</t>
+  </si>
+  <si>
+    <t>WIN 748</t>
+  </si>
+  <si>
+    <t>WIN 760</t>
+  </si>
+  <si>
+    <t>WIN AA LITE</t>
+  </si>
+  <si>
+    <t>WIN AA PLUS</t>
+  </si>
+  <si>
+    <t>WIN ACTION PI</t>
+  </si>
+  <si>
+    <t>WIN MAG RIFLE</t>
+  </si>
+  <si>
+    <t>WIN SUPER HANDI</t>
+  </si>
+  <si>
+    <t>wSUPER-FLD</t>
+  </si>
+  <si>
+    <t>wSUPER-LIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wSUPER-TAR </t>
+  </si>
+  <si>
+    <t>Alliant</t>
+  </si>
+  <si>
+    <t>ALLIANT STEEL</t>
+  </si>
+  <si>
+    <t>ALNT 300 MP</t>
+  </si>
+  <si>
+    <t>ALNT 4000 MR</t>
+  </si>
+  <si>
+    <t>ALNT 410</t>
+  </si>
+  <si>
+    <t>ALNT AR-COMP</t>
+  </si>
+  <si>
+    <t>ALNT E3</t>
+  </si>
+  <si>
+    <t>ALNT VARMINT</t>
+  </si>
+  <si>
+    <t>AMER-SELECT</t>
+  </si>
+  <si>
+    <t>BLUE DOT</t>
+  </si>
+  <si>
+    <t>BULLSEYE</t>
+  </si>
+  <si>
+    <t>GREEN DOT</t>
+  </si>
+  <si>
+    <t>HERC 2400</t>
+  </si>
+  <si>
+    <t>HERCO</t>
+  </si>
+  <si>
+    <t>POWER PISTOL</t>
+  </si>
+  <si>
+    <t>RED DOT</t>
+  </si>
+  <si>
+    <t>RELODER 10</t>
+  </si>
+  <si>
+    <t>RELODER 17</t>
+  </si>
+  <si>
+    <t>RELODER 25</t>
+  </si>
+  <si>
+    <t>RELODER 7</t>
+  </si>
+  <si>
+    <t>RELODER12</t>
+  </si>
+  <si>
+    <t>RELODER15</t>
+  </si>
+  <si>
+    <t>RELODER19</t>
+  </si>
+  <si>
+    <t>RELODER22</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>NORMA 200</t>
+  </si>
+  <si>
+    <t>NORMA 201</t>
+  </si>
+  <si>
+    <t>NORMA 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMA 203B </t>
+  </si>
+  <si>
+    <t>NORMA 204</t>
+  </si>
+  <si>
+    <t>NORMA 217</t>
+  </si>
+  <si>
+    <t>NORMA MRP</t>
+  </si>
+  <si>
+    <t>NORMA URP</t>
+  </si>
+  <si>
+    <t>Vihtavuori</t>
+  </si>
+  <si>
+    <t>v-3N37</t>
+  </si>
+  <si>
+    <t>v-3N38</t>
+  </si>
+  <si>
+    <t>v-N105</t>
+  </si>
+  <si>
+    <t>v-N110</t>
+  </si>
+  <si>
+    <t>v-N120</t>
+  </si>
+  <si>
+    <t>v-N130</t>
+  </si>
+  <si>
+    <t>v-N133</t>
+  </si>
+  <si>
+    <t>v-N135</t>
+  </si>
+  <si>
+    <t>v-N140</t>
+  </si>
+  <si>
+    <t>v-N150</t>
+  </si>
+  <si>
+    <t>v-N160</t>
+  </si>
+  <si>
+    <t>v-N165</t>
+  </si>
+  <si>
+    <t>v-N170</t>
+  </si>
+  <si>
+    <t>v-N310</t>
+  </si>
+  <si>
+    <t>v-N320</t>
+  </si>
+  <si>
+    <t>v-N330</t>
+  </si>
+  <si>
+    <t>v-N340</t>
+  </si>
+  <si>
+    <t>v-N350</t>
+  </si>
+  <si>
+    <t>V-N530</t>
+  </si>
+  <si>
+    <t>v-N540</t>
+  </si>
+  <si>
+    <t>v-N550</t>
+  </si>
+  <si>
+    <t>v-N560</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>A NITRO100</t>
+  </si>
+  <si>
+    <t>ACC MAG PRO</t>
+  </si>
+  <si>
+    <t>ACCUR #2</t>
+  </si>
+  <si>
+    <t>ACCUR #5</t>
+  </si>
+  <si>
+    <t>ACCUR #7</t>
+  </si>
+  <si>
+    <t>ACCUR #9</t>
+  </si>
+  <si>
+    <t>ACCUR 1680</t>
+  </si>
+  <si>
+    <t>ACCUR 2015</t>
+  </si>
+  <si>
+    <t>ACCUR 2200</t>
+  </si>
+  <si>
+    <t>ACCUR 2230</t>
+  </si>
+  <si>
+    <t>ACCUR 2460</t>
+  </si>
+  <si>
+    <t>ACCUR 2495</t>
+  </si>
+  <si>
+    <t>ACCUR 2520</t>
+  </si>
+  <si>
+    <t>ACCUR 2700</t>
+  </si>
+  <si>
+    <t>ACCUR 3100</t>
+  </si>
+  <si>
+    <t>ACCUR 4064</t>
+  </si>
+  <si>
+    <t>ACCUR 4100</t>
+  </si>
+  <si>
+    <t>ACCUR 4350</t>
+  </si>
+  <si>
+    <t>ACCUR 5744</t>
+  </si>
+  <si>
+    <t>ACCUR 8700</t>
+  </si>
+  <si>
+    <t>BLACKHORN 209</t>
+  </si>
+  <si>
+    <t>LT-30</t>
+  </si>
+  <si>
+    <t>LT-32</t>
+  </si>
+  <si>
+    <t>R COMPETITION</t>
+  </si>
+  <si>
+    <t>R ENFORCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R HUNTER </t>
+  </si>
+  <si>
+    <t>R SILHOUETTE</t>
+  </si>
+  <si>
+    <t>R TRUE BLUE</t>
+  </si>
+  <si>
+    <t>RAM BIG GAME</t>
+  </si>
+  <si>
+    <t>RAM MAGNUM</t>
+  </si>
+  <si>
+    <t>RAM TAC</t>
+  </si>
+  <si>
+    <t>RAM ZIP</t>
+  </si>
+  <si>
+    <t>SOLO 1000</t>
+  </si>
+  <si>
+    <t>SOLO 1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-TERMINATOR </t>
+  </si>
+  <si>
+    <t>Add Powder VMD factor Calculator Sheet with Some VMD factors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1227,8 +1871,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1282,8 +1937,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2040,6 +2701,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2049,7 +2747,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2187,15 +2885,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2348,11 +3037,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2360,133 +3045,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -2497,6 +3055,228 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="10" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2505,7 +3285,160 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2542,6 +3475,77 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2817,10 +3821,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Excel Options Menus 2007 2010 2013 2016">
+        <xdr:cNvPr id="8" name="Picture 7" descr="Excel Options Menus 2007 2010 2013 2016">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F7A960-317F-451C-8469-DEF9187488A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30307FBC-C0DE-43AD-BDF5-2B08F6FAEE99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +3847,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="2400300"/>
+          <a:off x="85725" y="2781300"/>
           <a:ext cx="5172075" cy="3971925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2878,10 +3882,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Excel Options Add-Ins Menu">
+        <xdr:cNvPr id="10" name="Picture 9" descr="Excel Options Add-Ins Menu">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962D4919-D154-446A-81D7-83A7F5154F68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6161D0A-79ED-405C-9928-FD25A8BC567F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +3908,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="6629400"/>
+          <a:off x="0" y="8067675"/>
           <a:ext cx="5200650" cy="4095750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2939,10 +3943,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Browse for Excel Add-ins">
+        <xdr:cNvPr id="11" name="Picture 10" descr="Browse for Excel Add-ins">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218F1A35-B445-4966-A34B-B00BA2A3F1C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BECE14-B93A-4EAF-AB6B-76285380A8F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +3969,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="10944225"/>
+          <a:off x="0" y="12544425"/>
           <a:ext cx="3886200" cy="3505200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3000,10 +4004,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5397C208-FC0E-49D5-BC97-97CCC2B02FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780AA7D7-C976-47D4-A719-66CB7F6D9E9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,8 +4023,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="21355050"/>
-          <a:ext cx="2895238" cy="3857143"/>
+          <a:off x="495300" y="21174075"/>
+          <a:ext cx="2895238" cy="3838093"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3044,10 +4048,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D930D6E7-14C1-432F-8B77-9D98A80FCD2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E24ECE-7378-4826-9B7B-630CB3EEC0E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,6 +4078,22 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A76928A-C998-4021-ACBB-00177A755F3F}" name="PowderVMD" displayName="PowderVMD" ref="A21:G197" totalsRowShown="0" headerRowDxfId="12" dataDxfId="4">
+  <autoFilter ref="A21:G197" xr:uid="{8A04ED36-7442-4241-A3DC-3F49687FD0F3}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BDA2BAC0-5C6E-49AB-85F6-EBC4E631298D}" name="Manufacturer" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2E6734CB-C671-489F-BE7D-5BEB5290D19E}" name="Powder" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5BFAD372-72B9-4391-9C3A-E8106BD724D2}" name="Bulk Density_x000a_(g/dm3)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{B4D36036-43F3-40F8-9E50-2EBABD66B84D}" name="VMD Factor_x000a_(cc/gr)" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{46EAAD16-1E4A-46AA-8681-6D9FADEF4E10}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7E63F6CC-7DBA-48EA-B792-560549F6BA3D}" name="Shape" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{37F0906E-AF21-44D2-A8A8-61EFC6B0411E}" name="Weapons" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3375,653 +4395,651 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="115" style="82" customWidth="1"/>
+    <col min="1" max="1" width="115" style="79" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="80" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
+      <c r="A2" s="81"/>
     </row>
     <row r="3" spans="1:1" ht="52.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="82" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="84"/>
+      <c r="A4" s="81"/>
     </row>
     <row r="5" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="83" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86"/>
+      <c r="A6" s="83"/>
     </row>
     <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="84" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="88"/>
+      <c r="A9" s="85"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="85" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="81" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
+      <c r="A12" s="86"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
+      <c r="A13" s="81"/>
     </row>
     <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="84" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="85" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
+      <c r="A16" s="81"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="85" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
+      <c r="A18" s="81"/>
     </row>
     <row r="19" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="85" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
+      <c r="A20" s="81"/>
     </row>
     <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="85" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
+      <c r="A22" s="86"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="84"/>
+      <c r="A23" s="81"/>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="84" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="84"/>
+      <c r="A26" s="81"/>
     </row>
     <row r="27" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="81" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
+      <c r="A28" s="87"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="91"/>
+      <c r="A29" s="88"/>
     </row>
     <row r="30" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="104" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="108" t="s">
+      <c r="A32" s="105" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="84"/>
+      <c r="A33" s="81"/>
     </row>
     <row r="34" spans="1:1" ht="99" x14ac:dyDescent="0.2">
-      <c r="A34" s="109" t="s">
+      <c r="A34" s="106" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
+      <c r="A35" s="90"/>
     </row>
     <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="95"/>
+      <c r="A37" s="92"/>
     </row>
     <row r="38" spans="1:1" ht="99" x14ac:dyDescent="0.2">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="93" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="93" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="93" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="93" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="93" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A43" s="96" t="s">
+      <c r="A43" s="93" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A44" s="96" t="s">
+      <c r="A44" s="93" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="93" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="96" t="s">
+      <c r="A46" s="93" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="93" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="93" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="93" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="93" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="93" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="93"/>
+      <c r="A52" s="90"/>
     </row>
     <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="94" t="s">
+      <c r="A53" s="91" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="95"/>
+      <c r="A54" s="92"/>
     </row>
     <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="96" t="s">
+      <c r="A55" s="93" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="94" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="95" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="95" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="99" t="s">
+      <c r="A59" s="96" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="97" t="s">
+      <c r="A60" s="94" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="97" t="s">
+      <c r="A61" s="94" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="97"/>
+      <c r="A62" s="94"/>
     </row>
     <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="99" t="s">
+      <c r="A63" s="96" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="100"/>
+      <c r="A64" s="97"/>
     </row>
     <row r="65" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="98" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="101" t="s">
+      <c r="A66" s="98" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="98" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="94" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="95"/>
+      <c r="A69" s="92"/>
     </row>
     <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="102" t="s">
+      <c r="A70" s="99" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="95"/>
+      <c r="A71" s="92"/>
     </row>
     <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="103"/>
+      <c r="A72" s="100"/>
     </row>
     <row r="73" spans="1:1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A73" s="97" t="s">
+      <c r="A73" s="94" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="97" t="s">
+      <c r="A74" s="94" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="97" t="s">
+      <c r="A75" s="94" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="93"/>
+      <c r="A76" s="90"/>
     </row>
     <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="94" t="s">
+      <c r="A77" s="91" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="93"/>
+      <c r="A78" s="90"/>
     </row>
     <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="89" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="97"/>
+      <c r="A80" s="94"/>
     </row>
     <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="102" t="s">
+      <c r="A81" s="99" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="95"/>
+      <c r="A82" s="92"/>
     </row>
     <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="103"/>
+      <c r="A83" s="100"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="104"/>
+      <c r="A84" s="101"/>
     </row>
     <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="92" t="s">
+      <c r="A85" s="89" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="104"/>
+      <c r="A86" s="101"/>
     </row>
     <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="97"/>
+      <c r="A87" s="94"/>
     </row>
     <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="98" t="s">
+      <c r="A88" s="95" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="105" t="s">
+      <c r="A89" s="102" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="105" t="s">
+      <c r="A90" s="102" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="105" t="s">
+      <c r="A91" s="102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="105" t="s">
+      <c r="A92" s="102" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="105" t="s">
+      <c r="A93" s="102" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="95" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A95" s="98" t="s">
+      <c r="A95" s="95" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="92" t="s">
+      <c r="A96" s="89" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A97" s="92" t="s">
+      <c r="A97" s="89" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="96" t="s">
+      <c r="A98" s="93" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="95"/>
+      <c r="A99" s="92"/>
     </row>
     <row r="100" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A100" s="92" t="s">
+      <c r="A100" s="89" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="95"/>
+      <c r="A101" s="92"/>
     </row>
     <row r="102" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="103"/>
+      <c r="A102" s="100"/>
     </row>
     <row r="103" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A103" s="97" t="s">
+      <c r="A103" s="94" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="97" t="s">
+      <c r="A104" s="94" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="97" t="s">
+      <c r="A105" s="94" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="93"/>
+      <c r="A106" s="90"/>
     </row>
     <row r="107" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="94" t="s">
+      <c r="A107" s="91" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="93"/>
+      <c r="A108" s="90"/>
     </row>
     <row r="109" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A109" s="92" t="s">
+      <c r="A109" s="89" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="95"/>
+      <c r="A110" s="92"/>
     </row>
     <row r="111" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A111" s="97" t="s">
+      <c r="A111" s="94" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="97" t="s">
+      <c r="A112" s="94" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A113" s="97" t="s">
+      <c r="A113" s="94" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="93"/>
+      <c r="A114" s="90"/>
     </row>
     <row r="115" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A115" s="92" t="s">
+      <c r="A115" s="89" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="93"/>
+      <c r="A116" s="90"/>
     </row>
     <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="94" t="s">
+      <c r="A117" s="91" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="95"/>
+      <c r="A118" s="92"/>
     </row>
     <row r="119" spans="1:1" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="96" t="s">
+      <c r="A119" s="93" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="99" x14ac:dyDescent="0.2">
-      <c r="A120" s="96" t="s">
+      <c r="A120" s="93" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="95"/>
+      <c r="A121" s="92"/>
     </row>
     <row r="122" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A122" s="103" t="s">
+      <c r="A122" s="100" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="93"/>
+      <c r="A123" s="90"/>
     </row>
     <row r="124" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="94" t="s">
+      <c r="A124" s="91" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="95"/>
+      <c r="A125" s="92"/>
     </row>
     <row r="126" spans="1:1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="103" t="s">
+      <c r="A126" s="100" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="95"/>
+      <c r="A127" s="92"/>
     </row>
     <row r="128" spans="1:1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="103" t="s">
+      <c r="A128" s="100" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="95"/>
+      <c r="A129" s="92"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="103"/>
+      <c r="A130" s="100"/>
     </row>
     <row r="131" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A131" s="97" t="s">
+      <c r="A131" s="94" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="97" t="s">
+      <c r="A132" s="94" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A133" s="92" t="s">
+      <c r="A133" s="89" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="103" t="s">
+      <c r="A134" s="100" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="103" t="s">
+      <c r="A135" s="100" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="93"/>
+      <c r="A136" s="90"/>
     </row>
     <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="94" t="s">
+      <c r="A137" s="91" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="95"/>
+      <c r="A138" s="92"/>
     </row>
     <row r="139" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A139" s="103" t="s">
+      <c r="A139" s="100" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.2">
-      <c r="A140" s="103" t="s">
+      <c r="A140" s="100" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="93"/>
+      <c r="A141" s="90"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="94" t="s">
+      <c r="A142" s="91" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="95"/>
+      <c r="A143" s="92"/>
     </row>
     <row r="144" spans="1:6" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="103" t="s">
+      <c r="A144" s="100" t="s">
         <v>132</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:1" ht="66" x14ac:dyDescent="0.2">
-      <c r="A145" s="103" t="s">
+      <c r="A145" s="100" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A146" s="103" t="s">
+      <c r="A146" s="100" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="50.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="106" t="s">
+      <c r="A147" s="103" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="111"/>
+      <c r="A148" s="108"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="110"/>
+      <c r="A149" s="107"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="110"/>
+      <c r="A150" s="107"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="w9X7de3XZlrzZ2em7YnGVxU+L16mWFsthWhwp0dMlMCSinsOBS0wkcxyG4L6KfLmrFvhDdidNC+nAKqtWn0OIg==" saltValue="IDy9DigEp5BYWIZswwvrbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -4038,7 +5056,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5409,7 +6427,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -5497,37 +6515,37 @@
       <c r="C15" s="6"/>
       <c r="D15" s="21">
         <f>F11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21">
         <f>D15+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21">
         <f>F15+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="21">
         <f>H15+1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21">
         <f>J15+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="21">
         <f>L15+1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21">
         <f>N15+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="1"/>
@@ -5558,37 +6576,37 @@
       <c r="C17" s="6"/>
       <c r="D17" s="22">
         <f ca="1">_OBT</f>
-        <v>0.8160273805399999</v>
+        <v>0.89479860997999994</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="22">
         <f ca="1">_OBT</f>
-        <v>0.89479860997999994</v>
+        <v>1.0221202376200003</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="22">
         <f ca="1">_OBT</f>
-        <v>1.0221202376200003</v>
+        <v>1.1015813478599998</v>
       </c>
       <c r="I17" s="23"/>
       <c r="J17" s="22">
         <f ca="1">_OBT</f>
-        <v>1.1015813478599998</v>
+        <v>1.2282130947000003</v>
       </c>
       <c r="K17" s="23"/>
       <c r="L17" s="22">
         <f ca="1">_OBT</f>
-        <v>1.2282130947000003</v>
+        <v>1.3083640857399998</v>
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="22">
         <f ca="1">_OBT</f>
-        <v>1.3083640857399998</v>
+        <v>1.4343059517799999</v>
       </c>
       <c r="O17" s="23"/>
       <c r="P17" s="22">
         <f ca="1">_OBT</f>
-        <v>1.4343059517799999</v>
+        <v>1.5151468236200001</v>
       </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="1"/>
@@ -5683,17 +6701,17 @@
       <c r="C22" s="29"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="32"/>
@@ -5750,7 +6768,7 @@
   <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5766,96 +6784,100 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="158" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="177"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="139" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="132" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="158" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="178"/>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="179"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="138"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="56">
         <f>COUNTIF(E18:E117,"&gt;0")</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="140"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="57">
         <f>IFERROR(ROUND(SUM(E18:E117)/C5, 2),0)</f>
-        <v>0</v>
+        <v>54.45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="140"/>
+      <c r="B7" s="159"/>
       <c r="C7" s="57">
         <f>IFERROR(MAX(E18:E117)-SMALL(E18:E117,COUNTIF($E$18:$E$117,0)+1),0)</f>
-        <v>0</v>
+        <v>0.80000000000001137</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="143"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="140"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="140"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="57">
         <f t="array" ref="C10:C12">IFERROR(IF(C5&gt;2,TRANSPOSE(_xll.MODE.FUZZY(E18:E117,C9,0.1)),0),"PLUGIN MISSING - SEE HELP TAB")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="140"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="57">
-        <v>0</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="142"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="58">
-        <v>0</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5900,12 +6922,16 @@
       <c r="A18" s="45">
         <v>1</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="63">
+        <v>180.3</v>
+      </c>
+      <c r="C18" s="63">
+        <v>235</v>
+      </c>
       <c r="D18" s="43"/>
       <c r="E18" s="38">
         <f>IF(C18-B18&gt;0,C18-B18,0)</f>
-        <v>0</v>
+        <v>54.699999999999989</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5916,12 +6942,16 @@
       <c r="A19" s="45">
         <v>2</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="63">
+        <v>184</v>
+      </c>
+      <c r="C19" s="63">
+        <v>238.5</v>
+      </c>
       <c r="D19" s="43"/>
       <c r="E19" s="38">
         <f t="shared" ref="E19:E82" si="0">IF(C19-B19&gt;0,C19-B19,0)</f>
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -5932,7 +6962,9 @@
       <c r="A20" s="45">
         <v>3</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="63">
+        <v>184.3</v>
+      </c>
       <c r="C20" s="63"/>
       <c r="D20" s="43"/>
       <c r="E20" s="38">
@@ -5948,12 +6980,16 @@
       <c r="A21" s="45">
         <v>4</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="63">
+        <v>180.5</v>
+      </c>
+      <c r="C21" s="63">
+        <v>235.3</v>
+      </c>
       <c r="D21" s="43"/>
       <c r="E21" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.800000000000011</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5964,12 +7000,16 @@
       <c r="A22" s="45">
         <v>5</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="63">
+        <v>182.7</v>
+      </c>
+      <c r="C22" s="63">
+        <v>237.5</v>
+      </c>
       <c r="D22" s="43"/>
       <c r="E22" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.800000000000011</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5980,12 +7020,16 @@
       <c r="A23" s="45">
         <v>6</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="63">
+        <v>182.1</v>
+      </c>
+      <c r="C23" s="63">
+        <v>236.8</v>
+      </c>
       <c r="D23" s="43"/>
       <c r="E23" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.700000000000017</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5996,12 +7040,16 @@
       <c r="A24" s="45">
         <v>7</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="63">
+        <v>182.65</v>
+      </c>
+      <c r="C24" s="63">
+        <v>236.8</v>
+      </c>
       <c r="D24" s="43"/>
       <c r="E24" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.150000000000006</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6012,12 +7060,16 @@
       <c r="A25" s="45">
         <v>8</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="63">
+        <v>177.7</v>
+      </c>
+      <c r="C25" s="63">
+        <v>232.2</v>
+      </c>
       <c r="D25" s="43"/>
       <c r="E25" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -6028,12 +7080,16 @@
       <c r="A26" s="45">
         <v>9</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="63">
+        <v>183.7</v>
+      </c>
+      <c r="C26" s="63">
+        <v>238</v>
+      </c>
       <c r="D26" s="43"/>
       <c r="E26" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.300000000000011</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -6044,12 +7100,16 @@
       <c r="A27" s="45">
         <v>10</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
+      <c r="B27" s="63">
+        <v>185.8</v>
+      </c>
+      <c r="C27" s="63">
+        <v>239.8</v>
+      </c>
       <c r="D27" s="43"/>
       <c r="E27" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -6060,12 +7120,16 @@
       <c r="A28" s="45">
         <v>11</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
+      <c r="B28" s="63">
+        <v>181.9</v>
+      </c>
+      <c r="C28" s="63">
+        <v>236.4</v>
+      </c>
       <c r="D28" s="43"/>
       <c r="E28" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -6076,12 +7140,16 @@
       <c r="A29" s="45">
         <v>12</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="B29" s="63">
+        <v>183</v>
+      </c>
+      <c r="C29" s="63">
+        <v>237.3</v>
+      </c>
       <c r="D29" s="43"/>
       <c r="E29" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.300000000000011</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -6092,12 +7160,16 @@
       <c r="A30" s="45">
         <v>13</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+      <c r="B30" s="63">
+        <v>182.9</v>
+      </c>
+      <c r="C30" s="63">
+        <v>237.2</v>
+      </c>
       <c r="D30" s="43"/>
       <c r="E30" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.299999999999983</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -6108,12 +7180,16 @@
       <c r="A31" s="45">
         <v>14</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="B31" s="63">
+        <v>179.5</v>
+      </c>
+      <c r="C31" s="63">
+        <v>234.1</v>
+      </c>
       <c r="D31" s="43"/>
       <c r="E31" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.599999999999994</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -6124,12 +7200,16 @@
       <c r="A32" s="45">
         <v>15</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
+      <c r="B32" s="63">
+        <v>183</v>
+      </c>
+      <c r="C32" s="63">
+        <v>237</v>
+      </c>
       <c r="D32" s="43"/>
       <c r="E32" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -6140,12 +7220,16 @@
       <c r="A33" s="45">
         <v>16</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="B33" s="63">
+        <v>184.1</v>
+      </c>
+      <c r="C33" s="63">
+        <v>238.4</v>
+      </c>
       <c r="D33" s="43"/>
       <c r="E33" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.300000000000011</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -6156,12 +7240,16 @@
       <c r="A34" s="45">
         <v>17</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="63">
+        <v>180.8</v>
+      </c>
+      <c r="C34" s="63">
+        <v>235.4</v>
+      </c>
       <c r="D34" s="43"/>
       <c r="E34" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.599999999999994</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -6172,12 +7260,16 @@
       <c r="A35" s="45">
         <v>18</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="63">
+        <v>182.1</v>
+      </c>
+      <c r="C35" s="63">
+        <v>236.7</v>
+      </c>
       <c r="D35" s="43"/>
       <c r="E35" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.599999999999994</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -7518,13 +8610,13 @@
     <mergeCell ref="A8:B8"/>
   </mergeCells>
   <conditionalFormatting sqref="E18:E117">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="between">
       <formula>$C$11</formula>
       <formula>$C$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A117">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND($E18&gt;=$C$11,$E18&lt;=$C$12)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7539,245 +8631,281 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="174" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="175"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="165"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="177"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="139">
+        <v>2589</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="136">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="140">
+        <v>2613</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="140">
+        <v>2547</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="140">
+        <v>2591</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="140">
+        <v>2654</v>
+      </c>
+      <c r="C7" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="150"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="C3" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="130"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="C4" s="129" t="s">
+      <c r="D7" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="140">
+        <v>2587</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="140">
+        <v>2669</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="140">
+        <v>2664</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="138">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="140">
+        <v>2550</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="129"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="140">
+        <v>2584</v>
+      </c>
+      <c r="C12" s="166"/>
+      <c r="D12" s="167"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="140"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="140"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="140"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="140"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="140"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="140"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="140"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+    </row>
+    <row r="20" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="140"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="140"/>
+      <c r="C21" s="180" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="181"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="140"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="140"/>
+      <c r="C23" s="170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="178">
+        <f>IFERROR(AVERAGE(A3:A33),0)</f>
+        <v>2604.8000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="140"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="179"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="140"/>
+      <c r="C25" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="178">
+        <f>MAX(A3:A33)-MIN(A3:A33)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="140"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="189"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="140"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="140"/>
+      <c r="C28" s="180" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="130"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="C5" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="130"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="C6" s="128" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="130"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="C7" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="130"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="C8" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="130"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="C9" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="132"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="C10" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" s="130"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="C11" s="128" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="134"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="168"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="168"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="168"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="168"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="168"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="168"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="168"/>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-    </row>
-    <row r="20" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-    </row>
-    <row r="21" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="C21" s="156" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="157"/>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="C23" s="145" t="s">
+      <c r="D28" s="181"/>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="140"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="188"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="140"/>
+      <c r="C30" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="160">
-        <f>IFERROR(AVERAGE(A3:A33),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="162"/>
-    </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67"/>
-      <c r="C25" s="145" t="s">
+      <c r="D30" s="172">
+        <f>IF((COUNTIF(A3:A33,"&gt;0")&gt;2),IFERROR((SUM(A3:A33)-MIN(A3:A33)-MAX(A3:A33))/(COUNT(A3:A33)-2),0),0)</f>
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="173"/>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="140"/>
+      <c r="C32" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="160">
-        <f>MAX(A3:A33)-MIN(A3:A33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="161"/>
-    </row>
-    <row r="27" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-    </row>
-    <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
-      <c r="C28" s="156" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="157"/>
-    </row>
-    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="159"/>
-    </row>
-    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="C30" s="145" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="147">
-        <f>IF((COUNTIF(A3:A33,"&gt;0")&gt;2),IFERROR((SUM(A3:A33)-MIN(A3:A33)-MAX(A3:A33))/(COUNT(A3:A33)-2),0),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="148"/>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="C32" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="153">
+      <c r="D32" s="184">
         <f>IF((COUNTIF(A3:A33,"&gt;0")&gt;2),IFERROR(LARGE(A3:A33,2) -  SMALL(A3:A33,2),0),0)</f>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="154"/>
+      <c r="A33" s="141"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="185"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C12:D19"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C1:D2"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="C21:D22"/>
@@ -7792,9 +8920,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7805,87 +8931,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="115"/>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="112" t="s">
+      <c r="A2" s="115"/>
+      <c r="B2" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="119"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="114" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="113" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="119"/>
+      <c r="C3" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="116"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
+      <c r="A4" s="115"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="119"/>
+      <c r="D4" s="116"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="119"/>
+      <c r="D5" s="116"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="118"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="66">
         <v>1.242</v>
       </c>
-      <c r="D6" s="119"/>
+      <c r="D6" s="116"/>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="118"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="66">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D7" s="119"/>
+      <c r="D7" s="116"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="118"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="119"/>
+      <c r="D8" s="116"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="118"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="119"/>
+      <c r="D9" s="116"/>
     </row>
     <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="118"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="66">
         <v>1.2467999999999999</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="116"/>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="118"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="34" t="s">
         <v>14</v>
       </c>
@@ -7893,16 +9019,16 @@
         <f>ROUND(C7*(1+C13%), 4)</f>
         <v>0.56220000000000003</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="116"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="118"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="119"/>
+      <c r="D12" s="116"/>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="118"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="34" t="s">
         <v>15</v>
       </c>
@@ -7910,24 +9036,24 @@
         <f>ROUND(((C10-C6)/C6)*100,3)</f>
         <v>0.38600000000000001</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="117" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="121"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="122"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="119"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
       <formula>-3</formula>
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>-3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7937,31 +9063,2467 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A8AD-15CE-4BAF-B90D-EDD5191A18D6}">
+  <dimension ref="A2:S197"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="10" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="B3" s="208" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="211" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+      <c r="B4" s="209" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="210" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="145">
+        <f>SUMPRODUCT((PowderVMD[Manufacturer]=C3)*(PowderVMD[Powder]=C4),PowderVMD[VMD Factor
+(cc/gr)])</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="134" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="148">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="135" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="146">
+        <f>C6*C5</f>
+        <v>2.8623500000000002</v>
+      </c>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="10" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="F10" s="147"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A10,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v>Alliant</v>
+      </c>
+      <c r="B11" s="147"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A11,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v>Hodgdon</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A12,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v>Norma</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A13,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v>Somchem</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A14,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v>Vihtavuori</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A15,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v>Western</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A16,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A17,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="152" t="str">
+        <f>IFERROR(INDEX(PowderVMD[Manufacturer],MATCH(0,INDEX(COUNTIF($A$10:A18,PowderVMD[Manufacturer]),),0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A21" s="149" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="150" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="150" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="151" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" s="151" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="204"/>
+      <c r="D22" s="205">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="204"/>
+      <c r="D23" s="205">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="204"/>
+      <c r="D24" s="205">
+        <v>7.22E-2</v>
+      </c>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="204"/>
+      <c r="D25" s="205">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="204"/>
+      <c r="D26" s="205">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B27" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="204"/>
+      <c r="D27" s="205">
+        <v>0.1489</v>
+      </c>
+      <c r="J27" s="37"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="J28" s="37"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C29" s="204"/>
+      <c r="D29" s="205">
+        <v>0.1341</v>
+      </c>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="204"/>
+      <c r="D30" s="205">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="204"/>
+      <c r="D31" s="205">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="J31" s="37"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="204"/>
+      <c r="D32" s="205">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="J32" s="37"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="204"/>
+      <c r="D33" s="205">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="204"/>
+      <c r="D34" s="205">
+        <v>0.11219999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35" s="204"/>
+      <c r="D35" s="205">
+        <v>8.8900000000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="204"/>
+      <c r="D36" s="205">
+        <v>0.14130000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="204"/>
+      <c r="D37" s="205">
+        <v>7.46E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="204"/>
+      <c r="D38" s="205">
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="204"/>
+      <c r="D39" s="205">
+        <v>7.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40" s="204"/>
+      <c r="D40" s="205">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>316</v>
+      </c>
+      <c r="C41" s="204"/>
+      <c r="D41" s="205">
+        <v>6.9099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="204"/>
+      <c r="D42" s="205">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43" s="204"/>
+      <c r="D43" s="205">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="204"/>
+      <c r="D44" s="205">
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45" s="204"/>
+      <c r="D45" s="205">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="201" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="202"/>
+      <c r="D46" s="206">
+        <v>7.8700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="199" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="203"/>
+      <c r="D47" s="207">
+        <v>7.1499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="201" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="202"/>
+      <c r="D48" s="206">
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="199" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="203"/>
+      <c r="D49" s="207">
+        <v>6.4600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="201" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="202"/>
+      <c r="D50" s="206">
+        <v>5.3800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="199" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" s="203"/>
+      <c r="D51" s="207">
+        <v>7.5399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="201" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="202"/>
+      <c r="D52" s="206">
+        <v>0.1462</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="199" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="203"/>
+      <c r="D53" s="207">
+        <v>6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="201" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="202"/>
+      <c r="D54" s="206">
+        <v>6.7799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="199" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="203"/>
+      <c r="D55" s="207">
+        <v>7.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="201" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="202"/>
+      <c r="D56" s="206">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="199" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="203"/>
+      <c r="D57" s="207">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="201" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="202"/>
+      <c r="D58" s="206">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="199" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="203"/>
+      <c r="D59" s="207">
+        <v>6.4500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="201" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="202"/>
+      <c r="D60" s="206">
+        <v>6.9099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="199" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="203"/>
+      <c r="D61" s="207">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="201" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" s="202"/>
+      <c r="D62" s="206">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="203"/>
+      <c r="D63" s="207">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="201" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="202"/>
+      <c r="D64" s="206">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="203"/>
+      <c r="D65" s="207">
+        <v>6.5299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="201" t="s">
+        <v>241</v>
+      </c>
+      <c r="C66" s="202"/>
+      <c r="D66" s="206">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="199" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="203"/>
+      <c r="D67" s="207">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="201" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="202"/>
+      <c r="D68" s="206">
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="199" t="s">
+        <v>244</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="207">
+        <v>6.5299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="201" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="202"/>
+      <c r="D70" s="206">
+        <v>6.5100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="199" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="203"/>
+      <c r="D71" s="207">
+        <v>9.2600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="201" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="202"/>
+      <c r="D72" s="206">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="199" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="203"/>
+      <c r="D73" s="207">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="201" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="202"/>
+      <c r="D74" s="206">
+        <v>6.5799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="199" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="203"/>
+      <c r="D75" s="207">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="201" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="202"/>
+      <c r="D76" s="206">
+        <v>7.2599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="199" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="203"/>
+      <c r="D77" s="207">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="201" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="202"/>
+      <c r="D78" s="206">
+        <v>7.4099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="199" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="203"/>
+      <c r="D79" s="207">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="201" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" s="202"/>
+      <c r="D80" s="206">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="199" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="203"/>
+      <c r="D81" s="207">
+        <v>0.1343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="201" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="202"/>
+      <c r="D82" s="206">
+        <v>7.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="199" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="203"/>
+      <c r="D83" s="207">
+        <v>0.1071</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="201" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="202"/>
+      <c r="D84" s="206">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="199" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="203"/>
+      <c r="D85" s="207">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="201" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="202"/>
+      <c r="D86" s="206">
+        <v>0.11219999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="199" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="203"/>
+      <c r="D87" s="207">
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="201" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="202"/>
+      <c r="D88" s="206">
+        <v>0.11070000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="199" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="203"/>
+      <c r="D89" s="207">
+        <v>9.8199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="201" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="202"/>
+      <c r="D90" s="206">
+        <v>0.2172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="199" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="203"/>
+      <c r="D91" s="207">
+        <v>7.6200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="201" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="202"/>
+      <c r="D92" s="206">
+        <v>7.4499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="199" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="203"/>
+      <c r="D93" s="207">
+        <v>7.9200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="201" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="202"/>
+      <c r="D94" s="206">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="199" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="203"/>
+      <c r="D95" s="207">
+        <v>7.1599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="201" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="202"/>
+      <c r="D96" s="206">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="199" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="203"/>
+      <c r="D97" s="207">
+        <v>7.3499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="201" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="202"/>
+      <c r="D98" s="206">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="199" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="203"/>
+      <c r="D99" s="207">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="201" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" s="202"/>
+      <c r="D100" s="206">
+        <v>8.2400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="199" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="203"/>
+      <c r="D101" s="207">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="201" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="202"/>
+      <c r="D102" s="206">
+        <v>9.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="199" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="203"/>
+      <c r="D103" s="207">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="201" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="202"/>
+      <c r="D104" s="206">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="199" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="203"/>
+      <c r="D105" s="207">
+        <v>8.48E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="201" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="202"/>
+      <c r="D106" s="206">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" s="199" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="203"/>
+      <c r="D107" s="207">
+        <v>0.1099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" s="201" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="202"/>
+      <c r="D108" s="206">
+        <v>9.3100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="199" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="203"/>
+      <c r="D109" s="207">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="201" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="202"/>
+      <c r="D110" s="206">
+        <v>8.2299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="199" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="203"/>
+      <c r="D111" s="207">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="201" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" s="202"/>
+      <c r="D112" s="206">
+        <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="199" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" s="203"/>
+      <c r="D113" s="207">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="201" t="s">
+        <v>289</v>
+      </c>
+      <c r="C114" s="202"/>
+      <c r="D114" s="206">
+        <v>0.12959999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="199" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="203"/>
+      <c r="D115" s="207">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="202"/>
+      <c r="D116" s="206">
+        <v>7.1800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="199" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="203"/>
+      <c r="D117" s="207">
+        <v>8.5900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="202"/>
+      <c r="D118" s="206">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="199" t="s">
+        <v>294</v>
+      </c>
+      <c r="C119" s="203"/>
+      <c r="D119" s="207">
+        <v>8.4699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" s="201" t="s">
+        <v>295</v>
+      </c>
+      <c r="C120" s="202"/>
+      <c r="D120" s="206">
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="204"/>
+      <c r="D121" s="205">
+        <v>7.3800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>321</v>
+      </c>
+      <c r="B122" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="204"/>
+      <c r="D122" s="205">
+        <v>7.2800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>321</v>
+      </c>
+      <c r="B123" t="s">
+        <v>324</v>
+      </c>
+      <c r="C123" s="204"/>
+      <c r="D123" s="205">
+        <v>7.4700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" t="s">
+        <v>325</v>
+      </c>
+      <c r="C124" s="204"/>
+      <c r="D124" s="205">
+        <v>7.22E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>321</v>
+      </c>
+      <c r="B125" t="s">
+        <v>326</v>
+      </c>
+      <c r="C125" s="204"/>
+      <c r="D125" s="205">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>321</v>
+      </c>
+      <c r="B126" t="s">
+        <v>327</v>
+      </c>
+      <c r="C126" s="204"/>
+      <c r="D126" s="205">
+        <v>7.1499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>321</v>
+      </c>
+      <c r="B127" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="204"/>
+      <c r="D127" s="205">
+        <v>7.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>321</v>
+      </c>
+      <c r="B128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C128" s="204"/>
+      <c r="D128" s="205">
+        <v>7.1800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="204">
+        <v>735</v>
+      </c>
+      <c r="D129" s="205">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" t="s">
+        <v>192</v>
+      </c>
+      <c r="G129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" s="198" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="203">
+        <v>601</v>
+      </c>
+      <c r="D130" s="207">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="E130" s="198" t="s">
+        <v>194</v>
+      </c>
+      <c r="F130" s="199"/>
+      <c r="G130" s="200" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="204">
+        <v>677</v>
+      </c>
+      <c r="D131" s="205">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>193</v>
+      </c>
+      <c r="G131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="203">
+        <v>960</v>
+      </c>
+      <c r="D132" s="207">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="E132" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="F132" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="G132" s="200" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="204">
+        <v>845</v>
+      </c>
+      <c r="D133" s="205">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>197</v>
+      </c>
+      <c r="F133" t="s">
+        <v>198</v>
+      </c>
+      <c r="G133" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" s="198" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="203">
+        <v>990</v>
+      </c>
+      <c r="D134" s="207">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="E134" s="198" t="s">
+        <v>193</v>
+      </c>
+      <c r="F134" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="G134" s="200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="204">
+        <v>900</v>
+      </c>
+      <c r="D135" s="205">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>195</v>
+      </c>
+      <c r="F135" t="s">
+        <v>198</v>
+      </c>
+      <c r="G135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>202</v>
+      </c>
+      <c r="B136" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="204">
+        <v>990</v>
+      </c>
+      <c r="D136" s="205">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>195</v>
+      </c>
+      <c r="F136" t="s">
+        <v>192</v>
+      </c>
+      <c r="G136" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="204">
+        <v>909</v>
+      </c>
+      <c r="D137" s="205">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>195</v>
+      </c>
+      <c r="F137" t="s">
+        <v>198</v>
+      </c>
+      <c r="G137" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B138" s="198" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" s="203">
+        <v>992</v>
+      </c>
+      <c r="D138" s="207">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="E138" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="F138" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="G138" s="200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>202</v>
+      </c>
+      <c r="B139" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139" s="204">
+        <v>915</v>
+      </c>
+      <c r="D139" s="205">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>197</v>
+      </c>
+      <c r="F139" t="s">
+        <v>198</v>
+      </c>
+      <c r="G139" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140" s="198" t="s">
+        <v>214</v>
+      </c>
+      <c r="C140" s="203">
+        <v>930</v>
+      </c>
+      <c r="D140" s="207">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="E140" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" s="198" t="s">
+        <v>198</v>
+      </c>
+      <c r="G140" s="200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>330</v>
+      </c>
+      <c r="B141" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141" s="204"/>
+      <c r="D141" s="205">
+        <v>9.1300000000000006E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>330</v>
+      </c>
+      <c r="B142" t="s">
+        <v>332</v>
+      </c>
+      <c r="C142" s="204"/>
+      <c r="D142" s="205">
+        <v>7.5399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>330</v>
+      </c>
+      <c r="B143" t="s">
+        <v>333</v>
+      </c>
+      <c r="C143" s="204"/>
+      <c r="D143" s="205">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>330</v>
+      </c>
+      <c r="B144" t="s">
+        <v>334</v>
+      </c>
+      <c r="C144" s="204"/>
+      <c r="D144" s="205">
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>330</v>
+      </c>
+      <c r="B145" t="s">
+        <v>335</v>
+      </c>
+      <c r="C145" s="204"/>
+      <c r="D145" s="205">
+        <v>7.7600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>330</v>
+      </c>
+      <c r="B146" t="s">
+        <v>336</v>
+      </c>
+      <c r="C146" s="204"/>
+      <c r="D146" s="205">
+        <v>7.5399999999999995E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>330</v>
+      </c>
+      <c r="B147" t="s">
+        <v>337</v>
+      </c>
+      <c r="C147" s="204"/>
+      <c r="D147" s="205">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>330</v>
+      </c>
+      <c r="B148" t="s">
+        <v>338</v>
+      </c>
+      <c r="C148" s="204"/>
+      <c r="D148" s="205">
+        <v>7.7700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>330</v>
+      </c>
+      <c r="B149" t="s">
+        <v>339</v>
+      </c>
+      <c r="C149" s="204"/>
+      <c r="D149" s="205">
+        <v>7.3300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>330</v>
+      </c>
+      <c r="B150" t="s">
+        <v>340</v>
+      </c>
+      <c r="C150" s="204"/>
+      <c r="D150" s="205">
+        <v>7.46E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>330</v>
+      </c>
+      <c r="B151" t="s">
+        <v>341</v>
+      </c>
+      <c r="C151" s="204"/>
+      <c r="D151" s="205">
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>330</v>
+      </c>
+      <c r="B152" t="s">
+        <v>342</v>
+      </c>
+      <c r="C152" s="204"/>
+      <c r="D152" s="205">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>330</v>
+      </c>
+      <c r="B153" t="s">
+        <v>343</v>
+      </c>
+      <c r="C153" s="204"/>
+      <c r="D153" s="205">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154" t="s">
+        <v>344</v>
+      </c>
+      <c r="C154" s="204"/>
+      <c r="D154" s="205">
+        <v>0.12139999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" t="s">
+        <v>345</v>
+      </c>
+      <c r="C155" s="204"/>
+      <c r="D155" s="205">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>330</v>
+      </c>
+      <c r="B156" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" s="204"/>
+      <c r="D156" s="205">
+        <v>0.1079</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>330</v>
+      </c>
+      <c r="B157" t="s">
+        <v>347</v>
+      </c>
+      <c r="C157" s="204"/>
+      <c r="D157" s="205">
+        <v>0.1066</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" t="s">
+        <v>348</v>
+      </c>
+      <c r="C158" s="204"/>
+      <c r="D158" s="205">
+        <v>9.7699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>330</v>
+      </c>
+      <c r="B159" t="s">
+        <v>349</v>
+      </c>
+      <c r="C159" s="204"/>
+      <c r="D159" s="205">
+        <v>7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" t="s">
+        <v>350</v>
+      </c>
+      <c r="C160" s="204"/>
+      <c r="D160" s="205">
+        <v>7.0099999999999996E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>330</v>
+      </c>
+      <c r="B161" t="s">
+        <v>351</v>
+      </c>
+      <c r="C161" s="204"/>
+      <c r="D161" s="205">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" t="s">
+        <v>352</v>
+      </c>
+      <c r="C162" s="204"/>
+      <c r="D162" s="205">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>353</v>
+      </c>
+      <c r="B163" t="s">
+        <v>354</v>
+      </c>
+      <c r="C163" s="204"/>
+      <c r="D163" s="205">
+        <v>0.13489999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" t="s">
+        <v>355</v>
+      </c>
+      <c r="C164" s="204"/>
+      <c r="D164" s="205">
+        <v>6.6299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>353</v>
+      </c>
+      <c r="B165" t="s">
+        <v>356</v>
+      </c>
+      <c r="C165" s="204"/>
+      <c r="D165" s="205">
+        <v>8.3799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>353</v>
+      </c>
+      <c r="B166" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="204"/>
+      <c r="D166" s="205">
+        <v>6.2300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>353</v>
+      </c>
+      <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" s="204"/>
+      <c r="D167" s="205">
+        <v>6.5299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>353</v>
+      </c>
+      <c r="B168" t="s">
+        <v>359</v>
+      </c>
+      <c r="C168" s="204"/>
+      <c r="D168" s="205">
+        <v>6.5699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>353</v>
+      </c>
+      <c r="B169" t="s">
+        <v>360</v>
+      </c>
+      <c r="C169" s="204"/>
+      <c r="D169" s="205">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>353</v>
+      </c>
+      <c r="B170" t="s">
+        <v>361</v>
+      </c>
+      <c r="C170" s="204"/>
+      <c r="D170" s="205">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>353</v>
+      </c>
+      <c r="B171" t="s">
+        <v>362</v>
+      </c>
+      <c r="C171" s="204"/>
+      <c r="D171" s="205">
+        <v>6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>353</v>
+      </c>
+      <c r="B172" t="s">
+        <v>363</v>
+      </c>
+      <c r="C172" s="204"/>
+      <c r="D172" s="205">
+        <v>6.5699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" t="s">
+        <v>364</v>
+      </c>
+      <c r="C173" s="204"/>
+      <c r="D173" s="205">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>353</v>
+      </c>
+      <c r="B174" t="s">
+        <v>365</v>
+      </c>
+      <c r="C174" s="204"/>
+      <c r="D174" s="205">
+        <v>7.4800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>353</v>
+      </c>
+      <c r="B175" t="s">
+        <v>366</v>
+      </c>
+      <c r="C175" s="204"/>
+      <c r="D175" s="205">
+        <v>6.83E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="204"/>
+      <c r="D176" s="205">
+        <v>6.8500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>353</v>
+      </c>
+      <c r="B177" t="s">
+        <v>368</v>
+      </c>
+      <c r="C177" s="204"/>
+      <c r="D177" s="205">
+        <v>7.4800000000000005E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" t="s">
+        <v>369</v>
+      </c>
+      <c r="C178" s="204"/>
+      <c r="D178" s="205">
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>353</v>
+      </c>
+      <c r="B179" t="s">
+        <v>370</v>
+      </c>
+      <c r="C179" s="204"/>
+      <c r="D179" s="205">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B180" t="s">
+        <v>371</v>
+      </c>
+      <c r="C180" s="204"/>
+      <c r="D180" s="205">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" t="s">
+        <v>372</v>
+      </c>
+      <c r="C181" s="204"/>
+      <c r="D181" s="205">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>353</v>
+      </c>
+      <c r="B182" t="s">
+        <v>373</v>
+      </c>
+      <c r="C182" s="204"/>
+      <c r="D182" s="205">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183" t="s">
+        <v>374</v>
+      </c>
+      <c r="C183" s="204"/>
+      <c r="D183" s="205">
+        <v>0.10059999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>353</v>
+      </c>
+      <c r="B184" t="s">
+        <v>375</v>
+      </c>
+      <c r="C184" s="204"/>
+      <c r="D184" s="205">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>353</v>
+      </c>
+      <c r="B185" t="s">
+        <v>376</v>
+      </c>
+      <c r="C185" s="204"/>
+      <c r="D185" s="205">
+        <v>7.7100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>353</v>
+      </c>
+      <c r="B186" t="s">
+        <v>377</v>
+      </c>
+      <c r="C186" s="204"/>
+      <c r="D186" s="205">
+        <v>0.1278</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" t="s">
+        <v>378</v>
+      </c>
+      <c r="C187" s="204"/>
+      <c r="D187" s="205">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>353</v>
+      </c>
+      <c r="B188" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" s="204"/>
+      <c r="D188" s="205">
+        <v>6.6699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" s="204"/>
+      <c r="D189" s="205">
+        <v>7.9600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>353</v>
+      </c>
+      <c r="B190" t="s">
+        <v>381</v>
+      </c>
+      <c r="C190" s="204"/>
+      <c r="D190" s="205">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>353</v>
+      </c>
+      <c r="B191" t="s">
+        <v>382</v>
+      </c>
+      <c r="C191" s="204"/>
+      <c r="D191" s="205">
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>353</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" s="204"/>
+      <c r="D192" s="205">
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" t="s">
+        <v>384</v>
+      </c>
+      <c r="C193" s="204"/>
+      <c r="D193" s="205">
+        <v>6.7100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>353</v>
+      </c>
+      <c r="B194" t="s">
+        <v>385</v>
+      </c>
+      <c r="C194" s="204"/>
+      <c r="D194" s="205">
+        <v>8.1600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>353</v>
+      </c>
+      <c r="B195" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195" s="204"/>
+      <c r="D195" s="205">
+        <v>0.1331</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>353</v>
+      </c>
+      <c r="B196" t="s">
+        <v>387</v>
+      </c>
+      <c r="C196" s="204"/>
+      <c r="D196" s="205">
+        <v>0.1099</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>353</v>
+      </c>
+      <c r="B197" t="s">
+        <v>388</v>
+      </c>
+      <c r="C197" s="204"/>
+      <c r="D197" s="205">
+        <v>6.8099999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{6815C2D5-4622-4441-AD26-DA79462AF2BC}">
+      <formula1>INDIRECT(C3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{8A7AB642-8941-42B8-9EA9-B8408052A724}">
+      <formula1>OFFSET($A$11,,,COUNTIF($A$11:$A$18,"?*"))</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="171" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173"/>
+      <c r="A1" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="192"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="176"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="195"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
@@ -7978,7 +11540,7 @@
       <c r="A5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="72">
         <v>43317</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -7989,7 +11551,7 @@
       <c r="A6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="76">
+      <c r="B6" s="73">
         <v>43318</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -7998,87 +11560,98 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="43"/>
-      <c r="B7" s="77"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
-      <c r="B8" s="77"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
-      <c r="B9" s="78"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="54" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="79">
+      <c r="A10" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="76">
         <v>43319</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="69" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="70" t="s">
-        <v>143</v>
+      <c r="B11" s="77"/>
+      <c r="C11" s="67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="70" t="s">
-        <v>144</v>
+      <c r="B12" s="78"/>
+      <c r="C12" s="67" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="70" t="s">
-        <v>145</v>
+      <c r="B13" s="77"/>
+      <c r="C13" s="67" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="130">
+        <v>43321</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>174</v>
-      </c>
-      <c r="B15" s="135">
-        <v>43321</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="43"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="70" t="s">
-        <v>177</v>
+      <c r="C16" s="67" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="71" t="s">
-        <v>178</v>
+      <c r="B17" s="71"/>
+      <c r="C17" s="68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="143">
+        <v>43477</v>
+      </c>
+      <c r="C18" s="144" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -8091,11 +11664,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A145"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8103,466 +11678,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
-        <v>146</v>
+      <c r="A1" s="120" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="123" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="s">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="126" t="s">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="123"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A6" s="126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="126"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="125" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="126" t="s">
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="123" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="126" t="s">
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="126" t="s">
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="123"/>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="123"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="121"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="121"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="121"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="121"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="121"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="121"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="121"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="121"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="121"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="121"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="121"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="121"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="121"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="121"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="121"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="121"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="121"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="121"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="121"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="121"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="121"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="121"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="121"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="121"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="121"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="124"/>
+    </row>
+    <row r="41" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="122" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="126"/>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="126"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="124"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="124"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="124"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="124"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="124"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="124"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="124"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="124"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="124"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="124"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="124"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="124"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="124"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="124"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="124"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="124"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="124"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="124"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="124"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="124"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="124"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="127"/>
-    </row>
-    <row r="41" spans="1:1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="125" t="s">
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="123" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="126" t="s">
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="123"/>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="123"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="121"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="121"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="121"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="121"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="121"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="121"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="121"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="121"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="121"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="121"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="121"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="121"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="121"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="121"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="121"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="121"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="121"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="121"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="121"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="121"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="121"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="121"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="121"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="121"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="122"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="126"/>
-    </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="126"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="124"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="124"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="124"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="124"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="124"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="124"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="124"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="124"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="124"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="124"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="124"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="124"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="124"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="124"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="124"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="124"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="124"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="124"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="124"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="124"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="124"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="124"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="124"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="124"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="125"/>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="125" t="s">
+    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="122"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="121"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="121"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="121"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="121"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="121"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="121"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="121"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="121"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="121"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="121"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="121"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="121"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="121"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="121"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="121"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="121"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="121"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="121"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="121"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="121"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="121"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="122"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="122" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="125"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="124"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="124"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="124"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="124"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="124"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="124"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="124"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="124"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="124"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="124"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="124"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="124"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="124"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="124"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="124"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="124"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="124"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="124"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="124"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="124"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="124"/>
-    </row>
-    <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="125"/>
-    </row>
-    <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="125" t="s">
+    <row r="95" spans="1:1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="122"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="122"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="121"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="121"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="121"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="121"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="121"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="121"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="121"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="121"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="121"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="121"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="121"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="121"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="121"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="121"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="121"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="121"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="121"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="121"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="121"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="121"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="121"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="121"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="121"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="121"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="122"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="122" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="125"/>
-    </row>
-    <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="125"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="124"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="124"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="124"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="124"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="124"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="124"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="124"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="124"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="124"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="124"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="124"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="124"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="124"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="124"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="124"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="124"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="124"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="124"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="124"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="124"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="124"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="124"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="124"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="124"/>
-    </row>
-    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="125"/>
-    </row>
-    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="125" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="125"/>
+      <c r="A123" s="122"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="124"/>
+      <c r="A124" s="121"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="124"/>
+      <c r="A125" s="121"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="124"/>
+      <c r="A126" s="121"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="124"/>
+      <c r="A127" s="121"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="124"/>
+      <c r="A128" s="121"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="124"/>
+      <c r="A129" s="121"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="124"/>
+      <c r="A130" s="121"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="124"/>
+      <c r="A131" s="121"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="124"/>
+      <c r="A132" s="121"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="124"/>
+      <c r="A133" s="121"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="124"/>
+      <c r="A134" s="121"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="124"/>
+      <c r="A135" s="121"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="124"/>
+      <c r="A136" s="121"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="124"/>
+      <c r="A137" s="121"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="124"/>
+      <c r="A138" s="121"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="124"/>
+      <c r="A139" s="121"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="124"/>
+      <c r="A140" s="121"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="124"/>
+      <c r="A141" s="121"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="124"/>
+      <c r="A142" s="121"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="124"/>
+      <c r="A143" s="121"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="124"/>
+      <c r="A144" s="121"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="124"/>
+      <c r="A145" s="121"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
